--- a/Portfolio_Analytics/PicturesOfLastYear/Exif_data.xlsx
+++ b/Portfolio_Analytics/PicturesOfLastYear/Exif_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="174">
   <si>
     <t>SourceFile</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>ImageDescription</t>
   </si>
 </sst>
 </file>
@@ -1095,16 +1098,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1118,12 +1112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C123" totalsRowShown="0">
-  <autoFilter ref="A1:C123">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C124" totalsRowShown="0">
+  <autoFilter ref="A1:C124"/>
   <tableColumns count="3">
     <tableColumn id="1" name="EXIF Data"/>
     <tableColumn id="2" name="1"/>
@@ -3534,13 +3524,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3553,18 +3546,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3597,7 +3590,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>11244368</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3630,7 +3623,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3641,7 +3634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3652,7 +3645,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3663,7 +3656,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3685,7 +3678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3707,7 +3700,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3729,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3751,7 +3744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3762,7 +3755,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3773,7 +3766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3784,7 +3777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3795,7 +3788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3806,7 +3799,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3828,7 +3821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +3832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -3861,7 +3854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3872,7 +3865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3894,7 +3887,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3916,7 +3909,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3938,7 +3931,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3960,7 +3953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +3964,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3982,7 +3975,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3993,7 +3986,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4004,7 +3997,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4015,7 +4008,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4026,7 +4019,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4037,7 +4030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4048,7 +4041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4056,7 +4049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4067,7 +4060,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4078,7 +4071,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4089,7 +4082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4100,7 +4093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4111,7 +4104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4133,7 +4126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4144,7 +4137,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4155,7 +4148,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4166,7 +4159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4177,7 +4170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4188,7 +4181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4199,7 +4192,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4210,7 +4203,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4221,7 +4214,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4232,7 +4225,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4243,7 +4236,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4254,7 +4247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4265,7 +4258,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4276,7 +4269,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4287,7 +4280,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4298,7 +4291,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4309,7 +4302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4320,7 +4313,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4331,7 +4324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4342,7 +4335,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4353,7 +4346,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4364,7 +4357,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4375,7 +4368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -4386,7 +4379,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4397,7 +4390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4408,7 +4401,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4419,7 +4412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4430,7 +4423,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4452,7 +4445,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4463,7 +4456,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4474,7 +4467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4485,7 +4478,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4496,7 +4489,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4507,7 +4500,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4518,7 +4511,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4529,7 +4522,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4540,7 +4533,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4551,7 +4544,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4562,7 +4555,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4573,7 +4566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4584,7 +4577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4595,7 +4588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4606,7 +4599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4617,7 +4610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4628,7 +4621,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4639,7 +4632,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4650,7 +4643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4683,7 +4676,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4694,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4705,7 +4698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4716,7 +4709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4727,7 +4720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4749,7 +4742,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4782,7 +4775,7 @@
         <v>7.9284361111111101</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4793,7 +4786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4804,7 +4797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4815,7 +4808,7 @@
         <v>41.195520000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4826,7 +4819,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4837,7 +4830,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4848,7 +4841,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4859,7 +4852,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4870,7 +4863,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4881,7 +4874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4891,6 +4884,13 @@
       <c r="C123" t="s">
         <v>166</v>
       </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
